--- a/src/test/resources/excelTemplates/客户信息模板.xlsx
+++ b/src/test/resources/excelTemplates/客户信息模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wmx\project\IDEA_project\h2Smil\src\test\resources\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F72B32-F3F1-433A-8F70-1CC56BB92D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BADB047-BF78-4D49-9EBC-0FF4A90886D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE619CA-58BB-47BA-897A-E978BD6601BD}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/excelTemplates/客户信息模板.xlsx
+++ b/src/test/resources/excelTemplates/客户信息模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wmx\project\IDEA_project\h2Smil\src\test\resources\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BADB047-BF78-4D49-9EBC-0FF4A90886D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ACDDFC-F4F5-45A9-B74C-8A8BA6F4C3C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -698,13 +698,13 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -835,8 +835,8 @@
       <c r="D7">
         <v>18510010456</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
+      <c r="E7" s="4">
+        <v>36729</v>
       </c>
       <c r="G7">
         <v>0.45600000000000002</v>
@@ -877,13 +877,13 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,8 +1025,8 @@
       <c r="D8">
         <v>18510010456</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
+      <c r="E8" s="4">
+        <v>36640</v>
       </c>
       <c r="G8">
         <v>0.45600000000000002</v>

--- a/src/test/resources/excelTemplates/客户信息模板.xlsx
+++ b/src/test/resources/excelTemplates/客户信息模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wmx\project\IDEA_project\h2Smil\src\test\resources\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ACDDFC-F4F5-45A9-B74C-8A8BA6F4C3C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2749F468-6F3B-4894-A03C-00C58022F6B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>回购率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.345x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000/6/14x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -697,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09E30BA-391A-48C5-B99D-D5DA007F9C0B}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -792,8 +800,8 @@
       <c r="D5">
         <v>17185642541</v>
       </c>
-      <c r="E5" s="3">
-        <v>36691</v>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G5">
         <v>0.45</v>
@@ -858,8 +866,8 @@
       <c r="E8" s="4">
         <v>36731</v>
       </c>
-      <c r="G8">
-        <v>0.34499999999999997</v>
+      <c r="G8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -877,7 +885,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
